--- a/code-splitting/docs/README-material.xlsx
+++ b/code-splitting/docs/README-material.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="20445" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="1035" windowWidth="20445" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="素材" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>8660</xdr:rowOff>
@@ -1128,7 +1128,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1188,7 +1188,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>151141</xdr:rowOff>
@@ -1248,7 +1248,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>138547</xdr:rowOff>
@@ -1308,7 +1308,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>129887</xdr:rowOff>
@@ -1368,7 +1368,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>100917</xdr:rowOff>
@@ -1428,7 +1428,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>74942</xdr:rowOff>
@@ -1488,7 +1488,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>8660</xdr:rowOff>
@@ -1547,7 +1547,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>151141</xdr:rowOff>
@@ -1606,7 +1606,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>77933</xdr:rowOff>
@@ -1665,13 +1665,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>158462</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>124063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>165626</xdr:rowOff>
@@ -1715,13 +1715,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>158462</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>165626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>115403</xdr:rowOff>
@@ -1765,13 +1765,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>167122</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>165626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>86434</xdr:rowOff>
@@ -1815,13 +1815,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>167122</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>138389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>86434</xdr:rowOff>
@@ -1865,13 +1865,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>158462</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>138389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>60458</xdr:rowOff>
@@ -1915,13 +1915,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>158462</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>60458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>146339</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>63449</xdr:rowOff>
@@ -2052,13 +2052,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>79665</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>154133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>36368</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>48964</xdr:rowOff>
@@ -2070,7 +2070,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8680740" y="3754583"/>
+          <a:off x="10480965" y="3754583"/>
           <a:ext cx="1356878" cy="580631"/>
           <a:chOff x="5178136" y="3146241"/>
           <a:chExt cx="1350817" cy="585826"/>
@@ -2253,7 +2253,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>100919</xdr:rowOff>
@@ -2313,13 +2313,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>74941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>74944</xdr:rowOff>
@@ -2331,7 +2331,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7124700" y="4361191"/>
+          <a:off x="8924925" y="4361191"/>
           <a:ext cx="200026" cy="171453"/>
           <a:chOff x="6132635" y="1348154"/>
           <a:chExt cx="197827" cy="168522"/>
@@ -2400,7 +2400,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
@@ -2460,7 +2460,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
@@ -2520,13 +2520,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>8660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>8663</xdr:rowOff>
@@ -2538,7 +2538,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7124700" y="4980710"/>
+          <a:off x="8924925" y="4980710"/>
           <a:ext cx="200026" cy="171453"/>
           <a:chOff x="6132635" y="1348154"/>
           <a:chExt cx="197827" cy="168522"/>
@@ -2607,13 +2607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>159137</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>165626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>79665</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141381</xdr:rowOff>
@@ -2658,13 +2658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>159137</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>79665</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>156966</xdr:rowOff>
@@ -2709,13 +2709,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>159137</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>79665</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>138389</xdr:rowOff>
@@ -2760,7 +2760,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>151141</xdr:rowOff>
@@ -2820,13 +2820,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>151141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>126898</xdr:rowOff>
@@ -2838,7 +2838,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7124700" y="5123191"/>
+          <a:off x="8924925" y="5123191"/>
           <a:ext cx="200026" cy="318657"/>
           <a:chOff x="6132635" y="1348154"/>
           <a:chExt cx="197827" cy="168522"/>
@@ -3205,6 +3205,1275 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11646</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1230267" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3812121" y="3412742"/>
+          <a:ext cx="1230267" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>app1.bundle.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240089" y="3720612"/>
+          <a:ext cx="800100" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>utils1.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97117</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="グループ化 73"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3640015" y="3697565"/>
+          <a:ext cx="200025" cy="171452"/>
+          <a:chOff x="6132635" y="1348154"/>
+          <a:chExt cx="197827" cy="168522"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6132635" y="1348154"/>
+            <a:ext cx="0" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="77" name="直線コネクタ 76"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6132635" y="1516673"/>
+            <a:ext cx="197827" cy="3"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11646</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1230267" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3812121" y="4000500"/>
+          <a:ext cx="1230267" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>app2.bundle.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22120</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240089" y="4308370"/>
+          <a:ext cx="800100" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>utils1.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167595</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="グループ化 80"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3640015" y="4282392"/>
+          <a:ext cx="200025" cy="171453"/>
+          <a:chOff x="6132635" y="1348154"/>
+          <a:chExt cx="197827" cy="168522"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="直線コネクタ 81"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6132635" y="1348154"/>
+            <a:ext cx="0" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="83" name="直線コネクタ 82"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6132635" y="1516673"/>
+            <a:ext cx="197827" cy="3"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107845</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240089" y="4565545"/>
+          <a:ext cx="800100" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>utils2.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="グループ化 84"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3640015" y="4362451"/>
+          <a:ext cx="200024" cy="352424"/>
+          <a:chOff x="6132635" y="1348154"/>
+          <a:chExt cx="197827" cy="168522"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="86" name="直線コネクタ 85"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6132635" y="1348154"/>
+            <a:ext cx="0" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="直線コネクタ 86"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6132635" y="1516673"/>
+            <a:ext cx="197827" cy="3"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11646</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1230267" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3812121" y="4847352"/>
+          <a:ext cx="1230267" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>app3.bundle.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240089" y="5158153"/>
+          <a:ext cx="800100" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>utils1.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160128</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="90" name="グループ化 89"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3640015" y="5132175"/>
+          <a:ext cx="200025" cy="171453"/>
+          <a:chOff x="6132635" y="1348154"/>
+          <a:chExt cx="197827" cy="168522"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="91" name="直線コネクタ 90"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6132635" y="1348154"/>
+            <a:ext cx="0" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="92" name="直線コネクタ 91"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6132635" y="1516673"/>
+            <a:ext cx="197827" cy="3"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100377</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240089" y="5415327"/>
+          <a:ext cx="800100" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>utils2.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>78258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="グループ化 96"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3640015" y="5212234"/>
+          <a:ext cx="200024" cy="352424"/>
+          <a:chOff x="6132635" y="1348154"/>
+          <a:chExt cx="197827" cy="168522"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="106" name="直線コネクタ 105"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6132635" y="1348154"/>
+            <a:ext cx="0" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="107" name="直線コネクタ 106"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6132635" y="1516673"/>
+            <a:ext cx="197827" cy="3"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11646</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1230267" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3812121" y="5695950"/>
+          <a:ext cx="1230267" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>app4.bundle.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3070</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240089" y="6003820"/>
+          <a:ext cx="800100" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>utils2.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148544</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="111" name="グループ化 110"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3640015" y="5977842"/>
+          <a:ext cx="200025" cy="171452"/>
+          <a:chOff x="6132635" y="1348154"/>
+          <a:chExt cx="197827" cy="168522"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="113" name="直線コネクタ 112"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6132635" y="1348154"/>
+            <a:ext cx="0" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="114" name="直線コネクタ 113"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6132635" y="1516673"/>
+            <a:ext cx="197827" cy="3"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88794</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="317395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="テキスト ボックス 115"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4240089" y="6260994"/>
+          <a:ext cx="800100" cy="317395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>utils3.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39565</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39564</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="117" name="グループ化 116"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3640015" y="6057900"/>
+          <a:ext cx="200024" cy="352425"/>
+          <a:chOff x="6132635" y="1348154"/>
+          <a:chExt cx="197827" cy="168522"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="119" name="直線コネクタ 118"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6132635" y="1348154"/>
+            <a:ext cx="0" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="120" name="直線コネクタ 119"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6132635" y="1516673"/>
+            <a:ext cx="197827" cy="3"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3493,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
